--- a/_notes/performance_calculator.xlsx
+++ b/_notes/performance_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logic\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C48D6C2-3A93-4025-A291-CF93649F9A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39A3E2E-1073-4910-895A-E21A32338D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{0CE91691-D1F5-4522-9C95-80D24086D4E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>per request spent (sec)</t>
   </si>
@@ -39,13 +39,25 @@
     <t>job</t>
   </si>
   <si>
-    <t>request interval per job (hrs)</t>
-  </si>
-  <si>
     <t>request generated per day</t>
   </si>
   <si>
-    <t xml:space="preserve">maximum capacity </t>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>request generated per hr</t>
+  </si>
+  <si>
+    <t>request interval per job (min)</t>
+  </si>
+  <si>
+    <t>saturate capacity (job)</t>
+  </si>
+  <si>
+    <t>80% of saturation (job)</t>
   </si>
 </sst>
 </file>
@@ -61,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD15EEF-E703-4FC9-989E-E8F0A85AFD8D}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +427,11 @@
     <col min="1" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -434,6 +458,11 @@
         <v>8640</v>
       </c>
     </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
@@ -441,28 +470,46 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <f>24/B8</f>
+        <f>60/B8</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f>B9*24</f>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <f>B4/B9</f>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>B4/B10</f>
         <v>1080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>B13*0.8</f>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
